--- a/data/trans_orig/P14B33-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B33-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB44F48D-91E3-4F20-8268-0E3FD339F7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95F97471-2806-4AE6-943E-084C3E5FDD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{20801BA9-39B4-4B4D-A559-D8B57BB5AD10}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FF4CC19F-CDD9-4844-B77D-3AE563FAC00C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -111,7 +111,7 @@
     <t>31,71%</t>
   </si>
   <si>
-    <t>83,63%</t>
+    <t>81,38%</t>
   </si>
   <si>
     <t>50,09%</t>
@@ -123,7 +123,7 @@
     <t>68,29%</t>
   </si>
   <si>
-    <t>16,37%</t>
+    <t>18,62%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -150,16 +150,16 @@
     <t>13,28%</t>
   </si>
   <si>
-    <t>54,36%</t>
+    <t>55,35%</t>
   </si>
   <si>
     <t>22,49%</t>
   </si>
   <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
   </si>
   <si>
     <t>61,54%</t>
@@ -171,16 +171,16 @@
     <t>86,72%</t>
   </si>
   <si>
-    <t>45,64%</t>
+    <t>44,65%</t>
   </si>
   <si>
     <t>77,51%</t>
   </si>
   <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -628,7 +628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75588481-A3A5-4473-8E64-78FCF2790168}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23415631-6EA2-4174-8BC9-D58F69C158FC}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1805,7 +1805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56656578-1231-48FF-8A78-B3F89C28AABF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC79693-1187-48AA-B40B-96E8ED3E8FE4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14B33-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B33-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95F97471-2806-4AE6-943E-084C3E5FDD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E523B738-9EAA-4F1C-ADEC-DB9594C26DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FF4CC19F-CDD9-4844-B77D-3AE563FAC00C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8E110ADC-19DB-41EC-B8CB-4ADE3B5EBB1C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -111,7 +111,7 @@
     <t>31,71%</t>
   </si>
   <si>
-    <t>81,38%</t>
+    <t>67,35%</t>
   </si>
   <si>
     <t>50,09%</t>
@@ -123,7 +123,7 @@
     <t>68,29%</t>
   </si>
   <si>
-    <t>18,62%</t>
+    <t>32,65%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -150,7 +150,7 @@
     <t>13,28%</t>
   </si>
   <si>
-    <t>55,35%</t>
+    <t>62,88%</t>
   </si>
   <si>
     <t>22,49%</t>
@@ -159,7 +159,7 @@
     <t>6,85%</t>
   </si>
   <si>
-    <t>52,42%</t>
+    <t>53,44%</t>
   </si>
   <si>
     <t>61,54%</t>
@@ -171,13 +171,13 @@
     <t>86,72%</t>
   </si>
   <si>
-    <t>44,65%</t>
+    <t>37,12%</t>
   </si>
   <si>
     <t>77,51%</t>
   </si>
   <si>
-    <t>47,58%</t>
+    <t>46,56%</t>
   </si>
   <si>
     <t>93,15%</t>
@@ -186,7 +186,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya esterilidad le limita en 2015 (Tasa respuesta: 0,08%)</t>
+    <t>Población cuya esterilidad le limita en 2016 (Tasa respuesta: 0,08%)</t>
   </si>
   <si>
     <t>50,6%</t>
@@ -207,7 +207,7 @@
     <t>18,56%</t>
   </si>
   <si>
-    <t>80,38%</t>
+    <t>77,78%</t>
   </si>
   <si>
     <t>68,27%</t>
@@ -216,7 +216,7 @@
     <t>81,44%</t>
   </si>
   <si>
-    <t>19,62%</t>
+    <t>22,22%</t>
   </si>
 </sst>
 </file>
@@ -628,7 +628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23415631-6EA2-4174-8BC9-D58F69C158FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F39E6E-82CB-4E37-9BBF-08900D2D1E2E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1805,7 +1805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC79693-1187-48AA-B40B-96E8ED3E8FE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68761DC8-B88E-46D9-8B20-261FF63FF80F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
